--- a/data/05_input/zm.bs13b.xlsx
+++ b/data/05_input/zm.bs13b.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/A4FEF71C-5612-4704-BA49-2030B984E619/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/Zmays_B73/05_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/BFA18EC6-31AC-4F09-A702-4E4703500D20/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A4B55C-0E17-2940-9FEF-1D1CE45FA7BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE405C8-BEFE-B045-B46A-06C4098DBD0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22920" yWindow="6820" windowWidth="15540" windowHeight="17580" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="18060" yWindow="3420" windowWidth="15540" windowHeight="17580" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="237">
   <si>
     <t>SampleID</t>
   </si>
@@ -730,6 +730,12 @@
   </si>
   <si>
     <t>s104</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>SE</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1097,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A105"/>
+      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1144,8 +1150,8 @@
       <c r="C2" t="s">
         <v>113</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>235</v>
       </c>
       <c r="G2">
         <v>89182264</v>
@@ -1167,8 +1173,8 @@
       <c r="C3" t="s">
         <v>114</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
+      <c r="F3" t="s">
+        <v>235</v>
       </c>
       <c r="G3">
         <v>102088628</v>
@@ -1190,8 +1196,8 @@
       <c r="C4" t="s">
         <v>115</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
+      <c r="F4" t="s">
+        <v>235</v>
       </c>
       <c r="G4">
         <v>196799812</v>
@@ -1213,8 +1219,8 @@
       <c r="C5" t="s">
         <v>116</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>235</v>
       </c>
       <c r="G5">
         <v>164243087</v>
@@ -1236,8 +1242,8 @@
       <c r="C6" t="s">
         <v>117</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="s">
+        <v>235</v>
       </c>
       <c r="G6">
         <v>70528888</v>
@@ -1259,8 +1265,8 @@
       <c r="C7" t="s">
         <v>118</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="s">
+        <v>235</v>
       </c>
       <c r="G7">
         <v>150210215</v>
@@ -1282,8 +1288,8 @@
       <c r="C8" t="s">
         <v>119</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
+      <c r="F8" t="s">
+        <v>235</v>
       </c>
       <c r="G8">
         <v>89490849</v>
@@ -1305,8 +1311,8 @@
       <c r="C9" t="s">
         <v>119</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
+      <c r="F9" t="s">
+        <v>235</v>
       </c>
       <c r="G9">
         <v>88914019</v>
@@ -1328,8 +1334,8 @@
       <c r="C10" t="s">
         <v>120</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="s">
+        <v>235</v>
       </c>
       <c r="G10">
         <v>135227147</v>
@@ -1351,8 +1357,8 @@
       <c r="C11" t="s">
         <v>120</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
+      <c r="F11" t="s">
+        <v>235</v>
       </c>
       <c r="G11">
         <v>134553055</v>
@@ -1374,8 +1380,8 @@
       <c r="C12" t="s">
         <v>121</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="F12" t="s">
+        <v>235</v>
       </c>
       <c r="G12">
         <v>142531361</v>
@@ -1397,8 +1403,8 @@
       <c r="C13" t="s">
         <v>122</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
+      <c r="F13" t="s">
+        <v>235</v>
       </c>
       <c r="G13">
         <v>177802568</v>
@@ -1420,8 +1426,8 @@
       <c r="C14" t="s">
         <v>122</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
+      <c r="F14" t="s">
+        <v>235</v>
       </c>
       <c r="G14">
         <v>40082220</v>
@@ -1443,8 +1449,8 @@
       <c r="C15" t="s">
         <v>123</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
+      <c r="F15" t="s">
+        <v>235</v>
       </c>
       <c r="G15">
         <v>169958542</v>
@@ -1466,8 +1472,8 @@
       <c r="C16" t="s">
         <v>124</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
+      <c r="F16" t="s">
+        <v>235</v>
       </c>
       <c r="G16">
         <v>108880210</v>
@@ -1489,8 +1495,8 @@
       <c r="C17" t="s">
         <v>124</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
+      <c r="F17" t="s">
+        <v>235</v>
       </c>
       <c r="G17">
         <v>107914071</v>
@@ -1512,8 +1518,8 @@
       <c r="C18" t="s">
         <v>125</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
+      <c r="F18" t="s">
+        <v>235</v>
       </c>
       <c r="G18">
         <v>129719308</v>
@@ -1535,8 +1541,8 @@
       <c r="C19" t="s">
         <v>125</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
+      <c r="F19" t="s">
+        <v>235</v>
       </c>
       <c r="G19">
         <v>129707949</v>
@@ -1558,8 +1564,8 @@
       <c r="C20" t="s">
         <v>126</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
+      <c r="F20" t="s">
+        <v>235</v>
       </c>
       <c r="G20">
         <v>43598192</v>
@@ -1581,8 +1587,8 @@
       <c r="C21" t="s">
         <v>126</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
+      <c r="F21" t="s">
+        <v>235</v>
       </c>
       <c r="G21">
         <v>44768081</v>
@@ -1604,8 +1610,8 @@
       <c r="C22" t="s">
         <v>126</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
+      <c r="F22" t="s">
+        <v>235</v>
       </c>
       <c r="G22">
         <v>44478680</v>
@@ -1627,8 +1633,8 @@
       <c r="C23" t="s">
         <v>126</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
+      <c r="F23" t="s">
+        <v>235</v>
       </c>
       <c r="G23">
         <v>44401944</v>
@@ -1650,8 +1656,8 @@
       <c r="C24" t="s">
         <v>126</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
+      <c r="F24" t="s">
+        <v>235</v>
       </c>
       <c r="G24">
         <v>43266677</v>
@@ -1673,8 +1679,8 @@
       <c r="C25" t="s">
         <v>126</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
+      <c r="F25" t="s">
+        <v>235</v>
       </c>
       <c r="G25">
         <v>42791583</v>
@@ -1696,8 +1702,8 @@
       <c r="C26" t="s">
         <v>126</v>
       </c>
-      <c r="F26" t="b">
-        <v>1</v>
+      <c r="F26" t="s">
+        <v>235</v>
       </c>
       <c r="G26">
         <v>40643032</v>
@@ -1719,8 +1725,8 @@
       <c r="C27" t="s">
         <v>126</v>
       </c>
-      <c r="F27" t="b">
-        <v>1</v>
+      <c r="F27" t="s">
+        <v>235</v>
       </c>
       <c r="G27">
         <v>32012481</v>
@@ -1742,8 +1748,8 @@
       <c r="C28" t="s">
         <v>126</v>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
+      <c r="F28" t="s">
+        <v>235</v>
       </c>
       <c r="G28">
         <v>25803020</v>
@@ -1765,8 +1771,8 @@
       <c r="C29" t="s">
         <v>126</v>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
+      <c r="F29" t="s">
+        <v>235</v>
       </c>
       <c r="G29">
         <v>26072051</v>
@@ -1788,8 +1794,8 @@
       <c r="C30" t="s">
         <v>126</v>
       </c>
-      <c r="F30" t="b">
-        <v>1</v>
+      <c r="F30" t="s">
+        <v>235</v>
       </c>
       <c r="G30">
         <v>27772534</v>
@@ -1811,8 +1817,8 @@
       <c r="C31" t="s">
         <v>126</v>
       </c>
-      <c r="F31" t="b">
-        <v>1</v>
+      <c r="F31" t="s">
+        <v>235</v>
       </c>
       <c r="G31">
         <v>25699557</v>
@@ -1834,8 +1840,8 @@
       <c r="C32" t="s">
         <v>126</v>
       </c>
-      <c r="F32" t="b">
-        <v>1</v>
+      <c r="F32" t="s">
+        <v>235</v>
       </c>
       <c r="G32">
         <v>25635210</v>
@@ -1857,8 +1863,8 @@
       <c r="C33" t="s">
         <v>126</v>
       </c>
-      <c r="F33" t="b">
-        <v>1</v>
+      <c r="F33" t="s">
+        <v>235</v>
       </c>
       <c r="G33">
         <v>25249193</v>
@@ -1880,8 +1886,8 @@
       <c r="C34" t="s">
         <v>126</v>
       </c>
-      <c r="F34" t="b">
-        <v>1</v>
+      <c r="F34" t="s">
+        <v>235</v>
       </c>
       <c r="G34">
         <v>25130027</v>
@@ -1903,8 +1909,8 @@
       <c r="C35" t="s">
         <v>126</v>
       </c>
-      <c r="F35" t="b">
-        <v>1</v>
+      <c r="F35" t="s">
+        <v>235</v>
       </c>
       <c r="G35">
         <v>14643821</v>
@@ -1926,8 +1932,8 @@
       <c r="C36" t="s">
         <v>126</v>
       </c>
-      <c r="F36" t="b">
-        <v>0</v>
+      <c r="F36" t="s">
+        <v>236</v>
       </c>
       <c r="G36">
         <v>64734199</v>
@@ -1949,8 +1955,8 @@
       <c r="C37" t="s">
         <v>126</v>
       </c>
-      <c r="F37" t="b">
-        <v>0</v>
+      <c r="F37" t="s">
+        <v>236</v>
       </c>
       <c r="G37">
         <v>65624669</v>
@@ -1972,8 +1978,8 @@
       <c r="C38" t="s">
         <v>126</v>
       </c>
-      <c r="F38" t="b">
-        <v>0</v>
+      <c r="F38" t="s">
+        <v>236</v>
       </c>
       <c r="G38">
         <v>69081393</v>
@@ -1995,8 +2001,8 @@
       <c r="C39" t="s">
         <v>126</v>
       </c>
-      <c r="F39" t="b">
-        <v>0</v>
+      <c r="F39" t="s">
+        <v>236</v>
       </c>
       <c r="G39">
         <v>67830854</v>
@@ -2018,8 +2024,8 @@
       <c r="C40" t="s">
         <v>126</v>
       </c>
-      <c r="F40" t="b">
-        <v>1</v>
+      <c r="F40" t="s">
+        <v>235</v>
       </c>
       <c r="G40">
         <v>24870431</v>
@@ -2041,8 +2047,8 @@
       <c r="C41" t="s">
         <v>126</v>
       </c>
-      <c r="F41" t="b">
-        <v>1</v>
+      <c r="F41" t="s">
+        <v>235</v>
       </c>
       <c r="G41">
         <v>25055686</v>
@@ -2064,8 +2070,8 @@
       <c r="C42" t="s">
         <v>126</v>
       </c>
-      <c r="F42" t="b">
-        <v>1</v>
+      <c r="F42" t="s">
+        <v>235</v>
       </c>
       <c r="G42">
         <v>24886906</v>
@@ -2087,8 +2093,8 @@
       <c r="C43" t="s">
         <v>126</v>
       </c>
-      <c r="F43" t="b">
-        <v>1</v>
+      <c r="F43" t="s">
+        <v>235</v>
       </c>
       <c r="G43">
         <v>25103665</v>
@@ -2110,8 +2116,8 @@
       <c r="C44" t="s">
         <v>126</v>
       </c>
-      <c r="F44" t="b">
-        <v>1</v>
+      <c r="F44" t="s">
+        <v>235</v>
       </c>
       <c r="G44">
         <v>25625604</v>
@@ -2133,8 +2139,8 @@
       <c r="C45" t="s">
         <v>126</v>
       </c>
-      <c r="F45" t="b">
-        <v>1</v>
+      <c r="F45" t="s">
+        <v>235</v>
       </c>
       <c r="G45">
         <v>25260958</v>
@@ -2156,8 +2162,8 @@
       <c r="C46" t="s">
         <v>126</v>
       </c>
-      <c r="F46" t="b">
-        <v>1</v>
+      <c r="F46" t="s">
+        <v>235</v>
       </c>
       <c r="G46">
         <v>24808372</v>
@@ -2179,8 +2185,8 @@
       <c r="C47" t="s">
         <v>126</v>
       </c>
-      <c r="F47" t="b">
-        <v>1</v>
+      <c r="F47" t="s">
+        <v>235</v>
       </c>
       <c r="G47">
         <v>12185569</v>
@@ -2202,8 +2208,8 @@
       <c r="C48" t="s">
         <v>126</v>
       </c>
-      <c r="F48" t="b">
-        <v>0</v>
+      <c r="F48" t="s">
+        <v>236</v>
       </c>
       <c r="G48">
         <v>63223270</v>
@@ -2225,8 +2231,8 @@
       <c r="C49" t="s">
         <v>126</v>
       </c>
-      <c r="F49" t="b">
-        <v>0</v>
+      <c r="F49" t="s">
+        <v>236</v>
       </c>
       <c r="G49">
         <v>63124864</v>
@@ -2248,8 +2254,8 @@
       <c r="C50" t="s">
         <v>126</v>
       </c>
-      <c r="F50" t="b">
-        <v>0</v>
+      <c r="F50" t="s">
+        <v>236</v>
       </c>
       <c r="G50">
         <v>66597892</v>
@@ -2271,8 +2277,8 @@
       <c r="C51" t="s">
         <v>126</v>
       </c>
-      <c r="F51" t="b">
-        <v>0</v>
+      <c r="F51" t="s">
+        <v>236</v>
       </c>
       <c r="G51">
         <v>63398045</v>
@@ -2294,8 +2300,8 @@
       <c r="C52" t="s">
         <v>126</v>
       </c>
-      <c r="F52" t="b">
-        <v>1</v>
+      <c r="F52" t="s">
+        <v>235</v>
       </c>
       <c r="G52">
         <v>33438378</v>
@@ -2317,8 +2323,8 @@
       <c r="C53" t="s">
         <v>126</v>
       </c>
-      <c r="F53" t="b">
-        <v>1</v>
+      <c r="F53" t="s">
+        <v>235</v>
       </c>
       <c r="G53">
         <v>26394034</v>
@@ -2340,8 +2346,8 @@
       <c r="C54" t="s">
         <v>126</v>
       </c>
-      <c r="F54" t="b">
-        <v>1</v>
+      <c r="F54" t="s">
+        <v>235</v>
       </c>
       <c r="G54">
         <v>25047679</v>
@@ -2363,8 +2369,8 @@
       <c r="C55" t="s">
         <v>126</v>
       </c>
-      <c r="F55" t="b">
-        <v>1</v>
+      <c r="F55" t="s">
+        <v>235</v>
       </c>
       <c r="G55">
         <v>25740389</v>
@@ -2386,8 +2392,8 @@
       <c r="C56" t="s">
         <v>126</v>
       </c>
-      <c r="F56" t="b">
-        <v>1</v>
+      <c r="F56" t="s">
+        <v>235</v>
       </c>
       <c r="G56">
         <v>27510273</v>
@@ -2409,8 +2415,8 @@
       <c r="C57" t="s">
         <v>126</v>
       </c>
-      <c r="F57" t="b">
-        <v>1</v>
+      <c r="F57" t="s">
+        <v>235</v>
       </c>
       <c r="G57">
         <v>21561105</v>
@@ -2432,8 +2438,8 @@
       <c r="C58" t="s">
         <v>126</v>
       </c>
-      <c r="F58" t="b">
-        <v>1</v>
+      <c r="F58" t="s">
+        <v>235</v>
       </c>
       <c r="G58">
         <v>17927513</v>
@@ -2455,8 +2461,8 @@
       <c r="C59" t="s">
         <v>126</v>
       </c>
-      <c r="F59" t="b">
-        <v>1</v>
+      <c r="F59" t="s">
+        <v>235</v>
       </c>
       <c r="G59">
         <v>19974885</v>
@@ -2478,8 +2484,8 @@
       <c r="C60" t="s">
         <v>126</v>
       </c>
-      <c r="F60" t="b">
-        <v>1</v>
+      <c r="F60" t="s">
+        <v>235</v>
       </c>
       <c r="G60">
         <v>27693559</v>
@@ -2501,8 +2507,8 @@
       <c r="C61" t="s">
         <v>126</v>
       </c>
-      <c r="F61" t="b">
-        <v>1</v>
+      <c r="F61" t="s">
+        <v>235</v>
       </c>
       <c r="G61">
         <v>25214677</v>
@@ -2524,8 +2530,8 @@
       <c r="C62" t="s">
         <v>126</v>
       </c>
-      <c r="F62" t="b">
-        <v>1</v>
+      <c r="F62" t="s">
+        <v>235</v>
       </c>
       <c r="G62">
         <v>27843962</v>
@@ -2547,8 +2553,8 @@
       <c r="C63" t="s">
         <v>127</v>
       </c>
-      <c r="F63" t="b">
-        <v>1</v>
+      <c r="F63" t="s">
+        <v>235</v>
       </c>
       <c r="G63">
         <v>27042386</v>
@@ -2570,8 +2576,8 @@
       <c r="C64" t="s">
         <v>127</v>
       </c>
-      <c r="F64" t="b">
-        <v>1</v>
+      <c r="F64" t="s">
+        <v>235</v>
       </c>
       <c r="G64">
         <v>37854849</v>
@@ -2593,8 +2599,8 @@
       <c r="C65" t="s">
         <v>127</v>
       </c>
-      <c r="F65" t="b">
-        <v>1</v>
+      <c r="F65" t="s">
+        <v>235</v>
       </c>
       <c r="G65">
         <v>39540597</v>
@@ -2616,8 +2622,8 @@
       <c r="C66" t="s">
         <v>127</v>
       </c>
-      <c r="F66" t="b">
-        <v>1</v>
+      <c r="F66" t="s">
+        <v>235</v>
       </c>
       <c r="G66">
         <v>40037492</v>
@@ -2639,8 +2645,8 @@
       <c r="C67" t="s">
         <v>127</v>
       </c>
-      <c r="F67" t="b">
-        <v>1</v>
+      <c r="F67" t="s">
+        <v>235</v>
       </c>
       <c r="G67">
         <v>39436903</v>
@@ -2662,8 +2668,8 @@
       <c r="C68" t="s">
         <v>127</v>
       </c>
-      <c r="F68" t="b">
-        <v>1</v>
+      <c r="F68" t="s">
+        <v>235</v>
       </c>
       <c r="G68">
         <v>35765547</v>
@@ -2685,8 +2691,8 @@
       <c r="C69" t="s">
         <v>127</v>
       </c>
-      <c r="F69" t="b">
-        <v>1</v>
+      <c r="F69" t="s">
+        <v>235</v>
       </c>
       <c r="G69">
         <v>38876615</v>
@@ -2708,8 +2714,8 @@
       <c r="C70" t="s">
         <v>127</v>
       </c>
-      <c r="F70" t="b">
-        <v>1</v>
+      <c r="F70" t="s">
+        <v>235</v>
       </c>
       <c r="G70">
         <v>37133537</v>
@@ -2731,8 +2737,8 @@
       <c r="C71" t="s">
         <v>127</v>
       </c>
-      <c r="F71" t="b">
-        <v>1</v>
+      <c r="F71" t="s">
+        <v>235</v>
       </c>
       <c r="G71">
         <v>28720196</v>
@@ -2754,8 +2760,8 @@
       <c r="C72" t="s">
         <v>127</v>
       </c>
-      <c r="F72" t="b">
-        <v>1</v>
+      <c r="F72" t="s">
+        <v>235</v>
       </c>
       <c r="G72">
         <v>32047847</v>
@@ -2777,8 +2783,8 @@
       <c r="C73" t="s">
         <v>127</v>
       </c>
-      <c r="F73" t="b">
-        <v>1</v>
+      <c r="F73" t="s">
+        <v>235</v>
       </c>
       <c r="G73">
         <v>30211568</v>
@@ -2800,8 +2806,8 @@
       <c r="C74" t="s">
         <v>127</v>
       </c>
-      <c r="F74" t="b">
-        <v>1</v>
+      <c r="F74" t="s">
+        <v>235</v>
       </c>
       <c r="G74">
         <v>31823435</v>
@@ -2823,8 +2829,8 @@
       <c r="C75" t="s">
         <v>127</v>
       </c>
-      <c r="F75" t="b">
-        <v>1</v>
+      <c r="F75" t="s">
+        <v>235</v>
       </c>
       <c r="G75">
         <v>30161712</v>
@@ -2846,8 +2852,8 @@
       <c r="C76" t="s">
         <v>127</v>
       </c>
-      <c r="F76" t="b">
-        <v>1</v>
+      <c r="F76" t="s">
+        <v>235</v>
       </c>
       <c r="G76">
         <v>30288789</v>
@@ -2869,8 +2875,8 @@
       <c r="C77" t="s">
         <v>127</v>
       </c>
-      <c r="F77" t="b">
-        <v>1</v>
+      <c r="F77" t="s">
+        <v>235</v>
       </c>
       <c r="G77">
         <v>31471319</v>
@@ -2892,8 +2898,8 @@
       <c r="C78" t="s">
         <v>127</v>
       </c>
-      <c r="F78" t="b">
-        <v>1</v>
+      <c r="F78" t="s">
+        <v>235</v>
       </c>
       <c r="G78">
         <v>20273046</v>
@@ -2915,8 +2921,8 @@
       <c r="C79" t="s">
         <v>127</v>
       </c>
-      <c r="F79" t="b">
-        <v>1</v>
+      <c r="F79" t="s">
+        <v>235</v>
       </c>
       <c r="G79">
         <v>10673158</v>
@@ -2938,8 +2944,8 @@
       <c r="C80" t="s">
         <v>127</v>
       </c>
-      <c r="F80" t="b">
-        <v>1</v>
+      <c r="F80" t="s">
+        <v>235</v>
       </c>
       <c r="G80">
         <v>14101719</v>
@@ -2961,8 +2967,8 @@
       <c r="C81" t="s">
         <v>127</v>
       </c>
-      <c r="F81" t="b">
-        <v>1</v>
+      <c r="F81" t="s">
+        <v>235</v>
       </c>
       <c r="G81">
         <v>41836071</v>
@@ -2984,8 +2990,8 @@
       <c r="C82" t="s">
         <v>127</v>
       </c>
-      <c r="F82" t="b">
-        <v>1</v>
+      <c r="F82" t="s">
+        <v>235</v>
       </c>
       <c r="G82">
         <v>43030913</v>
@@ -3007,8 +3013,8 @@
       <c r="C83" t="s">
         <v>127</v>
       </c>
-      <c r="F83" t="b">
-        <v>1</v>
+      <c r="F83" t="s">
+        <v>235</v>
       </c>
       <c r="G83">
         <v>38987360</v>
@@ -3030,8 +3036,8 @@
       <c r="C84" t="s">
         <v>127</v>
       </c>
-      <c r="F84" t="b">
-        <v>1</v>
+      <c r="F84" t="s">
+        <v>235</v>
       </c>
       <c r="G84">
         <v>43752597</v>
@@ -3053,8 +3059,8 @@
       <c r="C85" t="s">
         <v>127</v>
       </c>
-      <c r="F85" t="b">
-        <v>1</v>
+      <c r="F85" t="s">
+        <v>235</v>
       </c>
       <c r="G85">
         <v>43603438</v>
@@ -3076,8 +3082,8 @@
       <c r="C86" t="s">
         <v>127</v>
       </c>
-      <c r="F86" t="b">
-        <v>1</v>
+      <c r="F86" t="s">
+        <v>235</v>
       </c>
       <c r="G86">
         <v>42165042</v>
@@ -3099,8 +3105,8 @@
       <c r="C87" t="s">
         <v>127</v>
       </c>
-      <c r="F87" t="b">
-        <v>1</v>
+      <c r="F87" t="s">
+        <v>235</v>
       </c>
       <c r="G87">
         <v>42235556</v>
@@ -3122,8 +3128,8 @@
       <c r="C88" t="s">
         <v>127</v>
       </c>
-      <c r="F88" t="b">
-        <v>1</v>
+      <c r="F88" t="s">
+        <v>235</v>
       </c>
       <c r="G88">
         <v>39502986</v>
@@ -3145,8 +3151,8 @@
       <c r="C89" t="s">
         <v>127</v>
       </c>
-      <c r="F89" t="b">
-        <v>1</v>
+      <c r="F89" t="s">
+        <v>235</v>
       </c>
       <c r="G89">
         <v>44332759</v>
@@ -3168,8 +3174,8 @@
       <c r="C90" t="s">
         <v>127</v>
       </c>
-      <c r="F90" t="b">
-        <v>1</v>
+      <c r="F90" t="s">
+        <v>235</v>
       </c>
       <c r="G90">
         <v>44798791</v>
@@ -3191,8 +3197,8 @@
       <c r="C91" t="s">
         <v>127</v>
       </c>
-      <c r="F91" t="b">
-        <v>1</v>
+      <c r="F91" t="s">
+        <v>235</v>
       </c>
       <c r="G91">
         <v>44362583</v>
@@ -3214,8 +3220,8 @@
       <c r="C92" t="s">
         <v>127</v>
       </c>
-      <c r="F92" t="b">
-        <v>1</v>
+      <c r="F92" t="s">
+        <v>235</v>
       </c>
       <c r="G92">
         <v>17490532</v>
@@ -3237,8 +3243,8 @@
       <c r="C93" t="s">
         <v>127</v>
       </c>
-      <c r="F93" t="b">
-        <v>1</v>
+      <c r="F93" t="s">
+        <v>235</v>
       </c>
       <c r="G93">
         <v>22862281</v>
@@ -3260,8 +3266,8 @@
       <c r="C94" t="s">
         <v>127</v>
       </c>
-      <c r="F94" t="b">
-        <v>1</v>
+      <c r="F94" t="s">
+        <v>235</v>
       </c>
       <c r="G94">
         <v>13806671</v>
@@ -3283,8 +3289,8 @@
       <c r="C95" t="s">
         <v>127</v>
       </c>
-      <c r="F95" t="b">
-        <v>1</v>
+      <c r="F95" t="s">
+        <v>235</v>
       </c>
       <c r="G95">
         <v>12454466</v>
@@ -3306,8 +3312,8 @@
       <c r="C96" t="s">
         <v>127</v>
       </c>
-      <c r="F96" t="b">
-        <v>1</v>
+      <c r="F96" t="s">
+        <v>235</v>
       </c>
       <c r="G96">
         <v>36561219</v>
@@ -3329,8 +3335,8 @@
       <c r="C97" t="s">
         <v>127</v>
       </c>
-      <c r="F97" t="b">
-        <v>1</v>
+      <c r="F97" t="s">
+        <v>235</v>
       </c>
       <c r="G97">
         <v>36854247</v>
@@ -3352,8 +3358,8 @@
       <c r="C98" t="s">
         <v>127</v>
       </c>
-      <c r="F98" t="b">
-        <v>1</v>
+      <c r="F98" t="s">
+        <v>235</v>
       </c>
       <c r="G98">
         <v>36694452</v>
@@ -3375,8 +3381,8 @@
       <c r="C99" t="s">
         <v>127</v>
       </c>
-      <c r="F99" t="b">
-        <v>1</v>
+      <c r="F99" t="s">
+        <v>235</v>
       </c>
       <c r="G99">
         <v>36338140</v>
@@ -3398,8 +3404,8 @@
       <c r="C100" t="s">
         <v>127</v>
       </c>
-      <c r="F100" t="b">
-        <v>1</v>
+      <c r="F100" t="s">
+        <v>235</v>
       </c>
       <c r="G100">
         <v>36117573</v>
@@ -3421,8 +3427,8 @@
       <c r="C101" t="s">
         <v>127</v>
       </c>
-      <c r="F101" t="b">
-        <v>1</v>
+      <c r="F101" t="s">
+        <v>235</v>
       </c>
       <c r="G101">
         <v>36514075</v>
@@ -3444,8 +3450,8 @@
       <c r="C102" t="s">
         <v>127</v>
       </c>
-      <c r="F102" t="b">
-        <v>1</v>
+      <c r="F102" t="s">
+        <v>235</v>
       </c>
       <c r="G102">
         <v>35598045</v>
@@ -3467,8 +3473,8 @@
       <c r="C103" t="s">
         <v>127</v>
       </c>
-      <c r="F103" t="b">
-        <v>1</v>
+      <c r="F103" t="s">
+        <v>235</v>
       </c>
       <c r="G103">
         <v>27276754</v>
@@ -3490,8 +3496,8 @@
       <c r="C104" t="s">
         <v>127</v>
       </c>
-      <c r="F104" t="b">
-        <v>1</v>
+      <c r="F104" t="s">
+        <v>235</v>
       </c>
       <c r="G104">
         <v>21314682</v>
@@ -3513,8 +3519,8 @@
       <c r="C105" t="s">
         <v>127</v>
       </c>
-      <c r="F105" t="b">
-        <v>0</v>
+      <c r="F105" t="s">
+        <v>236</v>
       </c>
       <c r="G105">
         <v>27916656</v>
